--- a/pmt_model/data_for_mta/examples_2.87pct_growth.xlsx
+++ b/pmt_model/data_for_mta/examples_2.87pct_growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_projects\MTA\MTA2025\pmt_model\data_for_mta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC139039-294C-41F0-8BDE-7B5CF53446A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07133811-231E-4E40-9542-CBB3BD2C8E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,6 +1412,22 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <f>+SUM(D8:D13)</f>
+        <v>2449.1603189591933</v>
+      </c>
+      <c r="E21" s="1">
+        <f>+SUM(E8:E13)</f>
+        <v>329.99260045294449</v>
+      </c>
+      <c r="J21" s="1">
+        <f>+SUM(J8:J13)</f>
+        <v>2662.5695396717965</v>
+      </c>
+      <c r="K21" s="1">
+        <f>+SUM(K8:K13)</f>
+        <v>375.62895748581934</v>
+      </c>
       <c r="L21" s="1">
         <f>+SUM(L8:L13)</f>
         <v>3038.1984971576139</v>
@@ -1437,9 +1453,27 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>+D13/D21</f>
+        <v>0.84277598497061101</v>
+      </c>
+      <c r="E22">
+        <f>+E13/E21</f>
+        <v>0.65527930415615032</v>
+      </c>
       <c r="L22" s="5">
         <f>+L21+P21</f>
         <v>4548.776361841863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>+D13/J21</f>
+        <v>0.7752261375363747</v>
+      </c>
+      <c r="K23">
+        <f>+E13/K21</f>
+        <v>0.57566733685500637</v>
       </c>
     </row>
   </sheetData>
